--- a/biology/Médecine/Masoumeh_Ebtekar/Masoumeh_Ebtekar.xlsx
+++ b/biology/Médecine/Masoumeh_Ebtekar/Masoumeh_Ebtekar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Masoumeh Ebtekar (persan : معصومه ابتکار), née le 20 septembre 1960 à Téhéran, est une immunologiste et femme politique iranienne.
@@ -517,15 +529,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse, études et vie privée
-Masoumeh Ebtekar est diplômée avec un BSc degree en sciences en laboratoire de l'université Shahid Beheshti. Elle est également titulaire d'un Ph.D. en immunologie obtenu à l'université Tarbiat Modares en 1995, où elle enseigne toujours.
+          <t>Jeunesse, études et vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masoumeh Ebtekar est diplômée avec un BSc degree en sciences en laboratoire de l'université Shahid Beheshti. Elle est également titulaire d'un Ph.D. en immunologie obtenu à l'université Tarbiat Modares en 1995, où elle enseigne toujours.
 Elle est mariée et a deux enfants.
-Le 27 février 2020, elle est testée positive au COVID-19[1].
-Rôle dans la prise d'otage en Iran
-Pendant la crise de la prise d'otage en Iran de 1979, Ebtekar fut la porte-parole des étudiants qui ont occupé l'ambassade américaine[2]. Surnommée « Screaming Mary » par la presse américaine, elle fut choisie pour sa maîtrise de l'anglais en tant que porte-parole des étudiants qui détenaient 52 otages américains au siège de l'ambassade américaine.
+Le 27 février 2020, elle est testée positive au COVID-19.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Masoumeh_Ebtekar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masoumeh_Ebtekar</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rôle dans la prise d'otage en Iran</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la crise de la prise d'otage en Iran de 1979, Ebtekar fut la porte-parole des étudiants qui ont occupé l'ambassade américaine. Surnommée « Screaming Mary » par la presse américaine, elle fut choisie pour sa maîtrise de l'anglais en tant que porte-parole des étudiants qui détenaient 52 otages américains au siège de l'ambassade américaine.
 Ebtekar a écrit un récit de cette histoire avec Fred A. Reed intitulé Takeover in Tehran, qui parut en 2000  (ISBN 0-88922-443-9), par Talonbooks.
-Carrière politique
-Plus tard en 1981, elle devint rédactrice en chef du quotidien anglais Kayhan International, choisi par Khatami pour représenter l'Ayatollah Khomeini au Kayhan Institute. Elle occupa cette fonction jusqu'en 1983. Jusqu'en 1995, elle a été directrice du Farzaneh, journal pour l'étude des femmes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Masoumeh_Ebtekar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masoumeh_Ebtekar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus tard en 1981, elle devint rédactrice en chef du quotidien anglais Kayhan International, choisi par Khatami pour représenter l'Ayatollah Khomeini au Kayhan Institute. Elle occupa cette fonction jusqu'en 1983. Jusqu'en 1995, elle a été directrice du Farzaneh, journal pour l'étude des femmes. 
 Elle a reçu le prix « Programme des Nations unies pour l'environnement : Le Champion de la Terre » en 2006.
 </t>
         </is>
